--- a/labor-timekeeper/exports/2026-01/2026-01-14/Doug_Kinsey_2026-01-14.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-14/Doug_Kinsey_2026-01-14.xlsx
@@ -86,7 +86,7 @@
     <t>Doug Kinsey</t>
   </si>
   <si>
-    <t>emp_c2dcy26q</t>
+    <t>emp_yde33znx</t>
   </si>
 </sst>
 </file>

--- a/labor-timekeeper/exports/2026-01/2026-01-14/Doug_Kinsey_2026-01-14.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-14/Doug_Kinsey_2026-01-14.xlsx
@@ -549,10 +549,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -609,10 +609,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>3496</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +783,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -812,10 +812,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -841,10 +841,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -870,10 +870,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
